--- a/report/spending-time/by-AcademicDegree/NonParametricAnalysis.xlsx
+++ b/report/spending-time/by-AcademicDegree/NonParametricAnalysis.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="144">
   <si>
-    <t>Summary of Kruskal-Wallis rank sum test for Spending Time (min) by Academic Degree</t>
+    <t>Summary of Kruskal-Wallis rank sum test for Spending Time (min) by AcademicDegree</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -67,7 +67,7 @@
     <t>postgraduate - undergraduate</t>
   </si>
   <si>
-    <t>Summary of Wilcoxon Analysis for Spending Time (min) by Academic Degree</t>
+    <t>Summary of Wilcoxon Analysis for Spending Time (min) by AcademicDegree</t>
   </si>
   <si>
     <t>Wilcoxon test results for AcademicDegree - Alternative hypothesis: less</t>
@@ -106,7 +106,7 @@
     <t>small</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Spending Time (min) by Academic Degree in AcademicDegree between basic-school:postgraduate</t>
+    <t>Wilcoxon Analysis for Spending Time (min) by AcademicDegree in AcademicDegree between basic-school:postgraduate</t>
   </si>
   <si>
     <t>Wilcoxon test results</t>
@@ -175,7 +175,7 @@
     <t>LikeMMORPGGames</t>
   </si>
   <si>
-    <t>LikeShooterSames</t>
+    <t>LikeShooterGames</t>
   </si>
   <si>
     <t>LikeSimulationGames</t>
@@ -256,7 +256,7 @@
     <t>c(23, 10, 30, 10, 5, 5, 3, 30, 4, 10, 27, 25, 5, 12)</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Spending Time (min) by Academic Degree in AcademicDegree between basic-school:undergraduate</t>
+    <t>Wilcoxon Analysis for Spending Time (min) by AcademicDegree in AcademicDegree between basic-school:undergraduate</t>
   </si>
   <si>
     <t>c(2, 3, 4, 6, 7, 8, 9, 11, 12, 13, 15, 16, 17, 18, 19, 21, 22, 23, 24, 25, 26, 27, 28, 29, 31, 32, 33, 34, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50)</t>
@@ -324,7 +324,7 @@
     <t>c(10, 13, 29, 15, 40, 30, 20, 35, 10, 20, 5, 25, 15, 30, 11, 5, 40, 25, 3, 35, 12, 2, 20, 30, 4, 19, 3, 24, 25, 14, 27, 25, 20, 33, 5, 15, 10, 20, 12, 25, 7, 31, 40)</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Spending Time (min) by Academic Degree in AcademicDegree between postgraduate:undergraduate</t>
+    <t>Wilcoxon Analysis for Spending Time (min) by AcademicDegree in AcademicDegree between postgraduate:undergraduate</t>
   </si>
   <si>
     <t>c(1, 2, 3, 4, 5, 6, 7, 9, 10, 11, 12, 13, 16, 17, 18, 19, 22, 23, 25, 26, 27, 28, 29, 30, 32, 33, 34, 35, 36, 37, 40, 41, 43, 44, 45, 47, 48, 49, 50)</t>
